--- a/tabular/contributed/regimens.xlsx
+++ b/tabular/contributed/regimens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="8540" windowWidth="34040" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="15720" yWindow="8540" windowWidth="34040" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,61 +27,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>glecaprevir</t>
-  </si>
-  <si>
-    <t>velpatasvir</t>
-  </si>
-  <si>
-    <t>pibrentasvir</t>
-  </si>
-  <si>
-    <t>voxilaprevir</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>abbreviation</t>
-  </si>
-  <si>
-    <t>GLE</t>
-  </si>
-  <si>
-    <t>VEL</t>
-  </si>
-  <si>
-    <t>PIB</t>
-  </si>
-  <si>
-    <t>VOX</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>NS3/4A protease inhibitors</t>
-  </si>
-  <si>
-    <t>NS5A inhibitors</t>
-  </si>
-  <si>
-    <t>sofosbuvir</t>
-  </si>
-  <si>
-    <t>SOF</t>
-  </si>
-  <si>
-    <t>NS5B RNA polymerase inhibitors</t>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>SOF_LDV</t>
+  </si>
+  <si>
+    <t>SOF/LDV</t>
+  </si>
+  <si>
+    <t>SOF_DCV</t>
+  </si>
+  <si>
+    <t>SOF/DCV</t>
+  </si>
+  <si>
+    <t>SOF_VEL</t>
+  </si>
+  <si>
+    <t>SOF/VEL</t>
+  </si>
+  <si>
+    <t>SOF_SIM</t>
+  </si>
+  <si>
+    <t>SOF/SIM</t>
+  </si>
+  <si>
+    <t>SOF_mono</t>
+  </si>
+  <si>
+    <t>SOF mono</t>
+  </si>
+  <si>
+    <t>SOF_RBV</t>
+  </si>
+  <si>
+    <t>SOF/RBV</t>
+  </si>
+  <si>
+    <t>SOF_PEG_RBV</t>
+  </si>
+  <si>
+    <t>SOF/PEG/RBV</t>
+  </si>
+  <si>
+    <t>SOF_VEL_VOX</t>
+  </si>
+  <si>
+    <t>SOF/VEL/VOX</t>
+  </si>
+  <si>
+    <t>PIB_PTV_r</t>
+  </si>
+  <si>
+    <t>PIB/PTV/r</t>
+  </si>
+  <si>
+    <t>GLE_PIB</t>
+  </si>
+  <si>
+    <t>GLE/PIB</t>
+  </si>
+  <si>
+    <t>EBR_GZR_RBV</t>
+  </si>
+  <si>
+    <t>EBR/GZR/RBV</t>
+  </si>
+  <si>
+    <t>EBR_GZR</t>
+  </si>
+  <si>
+    <t>EBR/GZR</t>
+  </si>
+  <si>
+    <t>EBR_GZR_SOF</t>
+  </si>
+  <si>
+    <t>EBR/GZR/SOF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +141,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,11 +156,24 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -131,7 +186,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -411,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,70 +480,116 @@
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/regimens.xlsx
+++ b/tabular/contributed/regimens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="8540" windowWidth="34040" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="-28240" yWindow="2640" windowWidth="26120" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -111,6 +111,78 @@
   </si>
   <si>
     <t>EBR/GZR/SOF</t>
+  </si>
+  <si>
+    <t>SOF_LDV_RBV</t>
+  </si>
+  <si>
+    <t>SOF/LDV/RBV</t>
+  </si>
+  <si>
+    <t>DCV/ASV</t>
+  </si>
+  <si>
+    <t>DCV/ASV/PR</t>
+  </si>
+  <si>
+    <t>DCV_ASV</t>
+  </si>
+  <si>
+    <t>DCV_ASV_PR</t>
+  </si>
+  <si>
+    <t>DCV_mono</t>
+  </si>
+  <si>
+    <t>DCV mono</t>
+  </si>
+  <si>
+    <t>DCV_PR</t>
+  </si>
+  <si>
+    <t>DCV/PR</t>
+  </si>
+  <si>
+    <t>DCV/SIM/RBV</t>
+  </si>
+  <si>
+    <t>DCV_SIM_RBV</t>
+  </si>
+  <si>
+    <t>DCV/SIM</t>
+  </si>
+  <si>
+    <t>DCV_SIM</t>
+  </si>
+  <si>
+    <t>SOF/DCV/SIM/RBV</t>
+  </si>
+  <si>
+    <t>SOF_DCV_SIM_RBV</t>
+  </si>
+  <si>
+    <t>DCV/ASV/BCV</t>
+  </si>
+  <si>
+    <t>DCV_ASV_BCV</t>
+  </si>
+  <si>
+    <t>SOF_VEL_RBV</t>
+  </si>
+  <si>
+    <t>SOF/VEL/RBV</t>
+  </si>
+  <si>
+    <t>SOF_DCV_RBV</t>
+  </si>
+  <si>
+    <t>SOF/DCV/RBV</t>
+  </si>
+  <si>
+    <t>DCV_ASV_RBV</t>
+  </si>
+  <si>
+    <t>DCV/ASV/RBV</t>
   </si>
 </sst>
 </file>
@@ -468,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,6 +664,102 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/contributed/regimens.xlsx
+++ b/tabular/contributed/regimens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28240" yWindow="2640" windowWidth="26120" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="30660" yWindow="4700" windowWidth="26120" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>DCV/ASV/RBV</t>
+  </si>
+  <si>
+    <t>EBR_GZR_SOF_RBV</t>
+  </si>
+  <si>
+    <t>EBR/GZR/SOF/RBV</t>
+  </si>
+  <si>
+    <t>GZR_RBV</t>
+  </si>
+  <si>
+    <t>GZR/RBV</t>
+  </si>
+  <si>
+    <t>IFN/RBV/GZR</t>
+  </si>
+  <si>
+    <t>IFN_RBV_GZR</t>
   </si>
 </sst>
 </file>
@@ -228,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -249,16 +267,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -540,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,6 +796,30 @@
         <v>51</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/contributed/regimens.xlsx
+++ b/tabular/contributed/regimens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="4700" windowWidth="26120" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="10500" yWindow="4940" windowWidth="26120" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -201,6 +201,36 @@
   </si>
   <si>
     <t>IFN_RBV_GZR</t>
+  </si>
+  <si>
+    <t>PTV/r/OBV/DSV</t>
+  </si>
+  <si>
+    <t>PTV/r/OBV/DSV/RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV_RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_RBV</t>
+  </si>
+  <si>
+    <t>PTV/r/OBV/RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV</t>
+  </si>
+  <si>
+    <t>PTV/r/OBV</t>
+  </si>
+  <si>
+    <t>PIB_PTV_r_RBV</t>
+  </si>
+  <si>
+    <t>PIB/PTV/r/RBV</t>
   </si>
 </sst>
 </file>
@@ -288,13 +318,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -576,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,6 +853,46 @@
         <v>56</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
